--- a/고객 만족 데이터_보고.xlsx
+++ b/고객 만족 데이터_보고.xlsx
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#.##"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="맑은 고딕"/>
       <charset val="129"/>
@@ -35,77 +35,21 @@
       <sz val="8"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffd663"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="00CCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="00CCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="00CCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="00CCCCCC"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="00CCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="00CCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="00CCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="00CCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="00CCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="00CCCCCC"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -114,7 +58,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -128,20 +72,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1008,212 +939,200 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" style="5" min="1" max="1"/>
-    <col width="10" customWidth="1" style="5" min="2" max="2"/>
-    <col width="10" customWidth="1" style="5" min="3" max="3"/>
-    <col width="10" customWidth="1" style="5" min="4" max="4"/>
-    <col width="10" customWidth="1" style="5" min="6" max="6"/>
-  </cols>
   <sheetData>
-    <row r="0" ht="25" customHeight="1" s="5"/>
-    <row r="1" ht="25" customHeight="1" s="5">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>성별 분포</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>남성</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>여성</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="25" customHeight="1" s="5">
-      <c r="A2" s="7" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>인원</t>
         </is>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <f>COUNTIF(Sheet1!H2:H14,"남")</f>
         <v/>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <f>COUNTIF(Sheet1!H2:H14,"여")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="25" customHeight="1" s="5">
-      <c r="A3" s="7" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>비율</t>
         </is>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <f>B2/SUM(B2:C2)</f>
         <v/>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <f>C2/SUM(B2:C2)</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="25" customHeight="1" s="5">
+    <row r="4">
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
     </row>
-    <row r="5" ht="25" customHeight="1" s="5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>연령분포</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>연령 분포</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>20대</t>
         </is>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>30대</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>40대</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>50대 이상</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="25" customHeight="1" s="5">
-      <c r="A6" s="7" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>인원</t>
         </is>
       </c>
-      <c r="B6" s="7">
-        <f>COUNTIF(Sheet1!G2:G14,"20대")</f>
-        <v/>
-      </c>
-      <c r="C6" s="7">
-        <f>COUNTIF(Sheet1!G2:G14,"30대")</f>
-        <v/>
-      </c>
-      <c r="D6" s="7">
-        <f>COUNTIF(Sheet1!G2:G14,"40대")</f>
-        <v/>
-      </c>
-      <c r="E6" s="7">
-        <f>COUNTIF(Sheet1!G2:G14,"50대 이상")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" s="5">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="B6">
+        <f>COUNTIF(Sheet1!G2:G14),"20대")</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>COUNTIF(Sheet1!G2:G14),"30대")</f>
+        <v/>
+      </c>
+      <c r="D6">
+        <f>COUNTIF(Sheet1!G2:G14),"40대")</f>
+        <v/>
+      </c>
+      <c r="E6">
+        <f>COUNTIF(Sheet1!G2:G14),"50대 이상")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>비율</t>
         </is>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <f>B6/SUM(B6:E6)</f>
         <v/>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <f>C6/SUM(B6:E6)</f>
         <v/>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <f>D6/SUM(B6:E6)</f>
         <v/>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <f>E6/SUM(B6:E6)</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" s="5">
+    <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
     </row>
-    <row r="9" ht="25" customHeight="1" s="5">
-      <c r="A9" s="6" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>조사 결과</t>
         </is>
       </c>
-      <c r="B9" s="9" t="n"/>
-    </row>
-    <row r="10" ht="25" customHeight="1" s="5">
-      <c r="A10" s="7" t="inlineStr">
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>제품 만족도</t>
         </is>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="4">
         <f>Sheet1!B15</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="25" customHeight="1" s="5">
-      <c r="A11" s="7" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>재구매 의사</t>
         </is>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="4">
         <f>Sheet1!C15</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="25" customHeight="1" s="5">
-      <c r="A12" s="7" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>추천 의향</t>
         </is>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="4">
         <f>Sheet1!D15</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="25" customHeight="1" s="5">
-      <c r="A13" s="7" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>방문 횟수</t>
         </is>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <f>Sheet1!E15</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="25" customHeight="1" s="5">
-      <c r="A14" s="7" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>클레임 횟수</t>
         </is>
       </c>
-      <c r="B14" s="7">
+      <c r="B14">
         <f>Sheet1!F15</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:B9"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>